--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A012052-863D-41EA-B892-F7471F577C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C134643A-3B27-45DB-8C1A-3C6BE73613D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,48 +596,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -942,10 +942,10 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N29"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1083,7 +1083,7 @@
         <v>685</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
         <v>32702</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>39042</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
         <v>69</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
         <v>234</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>13107</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>25679</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>30</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1614,7 +1614,7 @@
         <v>27.6</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>487</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>19939</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C134643A-3B27-45DB-8C1A-3C6BE73613D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5E319D-DC77-45B2-9318-8EA22386FBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="435" windowWidth="21600" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sportKR" sheetId="1" r:id="rId1"/>
@@ -942,7 +942,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,19 +2118,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
         <v>2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
       </c>
       <c r="I27" s="2">
         <v>14</v>
       </c>
       <c r="J27" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K27" s="2">
         <v>49</v>
@@ -2139,10 +2139,10 @@
         <v>28</v>
       </c>
       <c r="M27" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N27" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2183,10 +2183,10 @@
         <v>37145</v>
       </c>
       <c r="M28" s="1">
-        <v>9848</v>
+        <v>10564</v>
       </c>
       <c r="N28" s="1">
-        <v>0</v>
+        <v>33052</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5E319D-DC77-45B2-9318-8EA22386FBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB00B6E-88E1-4565-9471-78F438D9430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="435" windowWidth="21600" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sportKR" sheetId="1" r:id="rId1"/>
@@ -596,48 +596,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -939,13 +939,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -956,7 +956,7 @@
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,8 +999,11 @@
       <c r="N1" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1040,8 +1043,11 @@
       <c r="N2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1085,8 +1091,11 @@
       <c r="N3" s="1">
         <v>877</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="1">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1130,8 +1139,11 @@
       <c r="N4" s="1">
         <v>39042</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="1">
+        <v>53908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1174,8 +1186,11 @@
       <c r="N5" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1218,8 +1233,11 @@
       <c r="N6" s="1">
         <v>178</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="1">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1262,8 +1280,11 @@
       <c r="N7" s="1">
         <v>454</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1306,8 +1327,11 @@
       <c r="N8" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1351,8 +1375,11 @@
       <c r="N9" s="1">
         <v>388</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1396,8 +1423,11 @@
       <c r="N10" s="1">
         <v>25679</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="1">
+        <v>22267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1440,8 +1470,11 @@
       <c r="N11" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1484,8 +1517,11 @@
       <c r="N12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1528,8 +1564,11 @@
       <c r="N13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1572,8 +1611,11 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1616,8 +1658,11 @@
       <c r="N15" s="1">
         <v>437</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1660,8 +1705,11 @@
       <c r="N16" s="1">
         <v>19939</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="1">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1704,8 +1752,11 @@
       <c r="N17" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1748,8 +1799,11 @@
       <c r="N18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1792,8 +1846,11 @@
       <c r="N19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1836,8 +1893,11 @@
       <c r="N20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1880,8 +1940,11 @@
       <c r="N21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1924,8 +1987,11 @@
       <c r="N22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1968,8 +2034,11 @@
       <c r="N23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2012,8 +2081,11 @@
       <c r="N24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2056,8 +2128,11 @@
       <c r="N25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2100,8 +2175,11 @@
       <c r="N26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2144,8 +2222,11 @@
       <c r="N27" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2188,8 +2269,11 @@
       <c r="N28" s="1">
         <v>33052</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2230,6 +2314,9 @@
         <v>0</v>
       </c>
       <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB00B6E-88E1-4565-9471-78F438D9430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA53777B-FE63-4D6D-A70D-3B758FE110D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sportKR" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>Sport</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Gauli</t>
+  </si>
+  <si>
+    <t>Langlauf</t>
   </si>
 </sst>
 </file>
@@ -596,48 +599,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -939,16 +942,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -956,7 +959,7 @@
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>53908</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1331,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>22267</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2273,7 +2276,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2318,6 +2321,100 @@
       </c>
       <c r="O29" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>7</v>
+      </c>
+      <c r="O30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>124.6</v>
+      </c>
+      <c r="O31" s="1">
+        <v>139.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/zsf.xlsx
+++ b/data/zsf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA53777B-FE63-4D6D-A70D-3B758FE110D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79196023-59C2-47B2-A99A-4588381E7076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>Sport</t>
   </si>
@@ -942,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="C32" sqref="C32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1379,7 +1379,7 @@
         <v>388</v>
       </c>
       <c r="O9" s="1">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -1427,7 +1427,7 @@
         <v>25679</v>
       </c>
       <c r="O10" s="1">
-        <v>22267</v>
+        <v>22754</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -1474,7 +1474,7 @@
         <v>51</v>
       </c>
       <c r="O11" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -2273,7 +2273,7 @@
         <v>33052</v>
       </c>
       <c r="O28" s="1">
-        <v>20000</v>
+        <v>31395</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -2367,7 +2367,7 @@
         <v>7</v>
       </c>
       <c r="O30" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -2414,7 +2414,54 @@
         <v>124.6</v>
       </c>
       <c r="O31" s="1">
-        <v>139.4</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>4269</v>
       </c>
     </row>
   </sheetData>
